--- a/28-oct-08-2022/understanding-rdbms.xlsx
+++ b/28-oct-08-2022/understanding-rdbms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puranik/Documents/training/general/full-stack/kh-fsd-jun-2022/28-oct-08-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A967D6B-21F7-A845-ACF1-767172553525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A3AE5-7F59-2D44-B383-B88CB6B40832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{D80FFF08-EB9D-3941-9FB3-2A0FCE2E41D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>User</t>
   </si>
@@ -93,6 +93,36 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>another last line</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Dion first line</t>
+  </si>
+  <si>
+    <t>Dion last line</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_id is a "foreign key" in ShippingAddress table</t>
+  </si>
+  <si>
+    <t>Structured Query Language (SQL)</t>
+  </si>
+  <si>
+    <t>When you want to retrieve data for an entity, it will involve "joining" a lot of tables -&gt; takes time</t>
   </si>
 </sst>
 </file>
@@ -456,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC07B0C-F979-3948-A694-8A475294AC4F}">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,12 +500,12 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,7 +522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -503,7 +533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -514,12 +544,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -538,8 +568,11 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -557,6 +590,70 @@
       </c>
       <c r="F9">
         <v>100</v>
+      </c>
+      <c r="G9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>12346</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>101</v>
+      </c>
+      <c r="G10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>13456</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>102</v>
+      </c>
+      <c r="G11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
